--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.50102447020778</v>
+        <v>2.541960333333333</v>
       </c>
       <c r="H2">
-        <v>2.50102447020778</v>
+        <v>7.625881</v>
       </c>
       <c r="I2">
-        <v>0.2003682452431387</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="J2">
-        <v>0.2003682452431387</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.44646243250828</v>
+        <v>0.6788056666666668</v>
       </c>
       <c r="N2">
-        <v>0.44646243250828</v>
+        <v>2.036417</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.5807293790604947</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.5807293790604947</v>
       </c>
       <c r="Q2">
-        <v>1.116613468731698</v>
+        <v>1.725497078708556</v>
       </c>
       <c r="R2">
-        <v>1.116613468731698</v>
+        <v>15.529473708377</v>
       </c>
       <c r="S2">
-        <v>0.2003682452431387</v>
+        <v>0.116222535722565</v>
       </c>
       <c r="T2">
-        <v>0.2003682452431387</v>
+        <v>0.116222535722565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.51083208916359</v>
+        <v>2.541960333333333</v>
       </c>
       <c r="H3">
-        <v>2.51083208916359</v>
+        <v>7.625881</v>
       </c>
       <c r="I3">
-        <v>0.2011539774195319</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="J3">
-        <v>0.2011539774195319</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.44646243250828</v>
+        <v>0.019209</v>
       </c>
       <c r="N3">
-        <v>0.44646243250828</v>
+        <v>0.057627</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01643361449404475</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01643361449404475</v>
       </c>
       <c r="Q3">
-        <v>1.120992202147823</v>
+        <v>0.048828516043</v>
       </c>
       <c r="R3">
-        <v>1.120992202147823</v>
+        <v>0.4394566443869999</v>
       </c>
       <c r="S3">
-        <v>0.2011539774195319</v>
+        <v>0.003288892238713511</v>
       </c>
       <c r="T3">
-        <v>0.2011539774195319</v>
+        <v>0.00328889223871351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.70654867783517</v>
+        <v>2.541960333333333</v>
       </c>
       <c r="H4">
-        <v>2.70654867783517</v>
+        <v>7.625881</v>
       </c>
       <c r="I4">
-        <v>0.2168337078277033</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="J4">
-        <v>0.2168337078277033</v>
+        <v>0.2001320062549445</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.44646243250828</v>
+        <v>0.47087</v>
       </c>
       <c r="N4">
-        <v>0.44646243250828</v>
+        <v>1.41261</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.4028370064454604</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.4028370064454605</v>
       </c>
       <c r="Q4">
-        <v>1.208372306408359</v>
+        <v>1.196932862156667</v>
       </c>
       <c r="R4">
-        <v>1.208372306408359</v>
+        <v>10.77239575941</v>
       </c>
       <c r="S4">
-        <v>0.2168337078277033</v>
+        <v>0.08062057829366601</v>
       </c>
       <c r="T4">
-        <v>0.2168337078277033</v>
+        <v>0.08062057829366601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.57554279431429</v>
+        <v>2.518570333333333</v>
       </c>
       <c r="H5">
-        <v>3.57554279431429</v>
+        <v>7.555711000000001</v>
       </c>
       <c r="I5">
-        <v>0.2864527092887596</v>
+        <v>0.1982904796327864</v>
       </c>
       <c r="J5">
-        <v>0.2864527092887596</v>
+        <v>0.1982904796327864</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.44646243250828</v>
+        <v>0.6788056666666668</v>
       </c>
       <c r="N5">
-        <v>0.44646243250828</v>
+        <v>2.036417</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.5807293790604947</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5807293790604947</v>
       </c>
       <c r="Q5">
-        <v>1.59634553348701</v>
+        <v>1.709619814165222</v>
       </c>
       <c r="R5">
-        <v>1.59634553348701</v>
+        <v>15.386578327487</v>
       </c>
       <c r="S5">
-        <v>0.2864527092887596</v>
+        <v>0.1151531071107557</v>
       </c>
       <c r="T5">
-        <v>0.2864527092887596</v>
+        <v>0.1151531071107557</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,675 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.518570333333333</v>
+      </c>
+      <c r="H6">
+        <v>7.555711000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.1982904796327864</v>
+      </c>
+      <c r="J6">
+        <v>0.1982904796327864</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.019209</v>
+      </c>
+      <c r="N6">
+        <v>0.057627</v>
+      </c>
+      <c r="O6">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="P6">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="Q6">
+        <v>0.048379217533</v>
+      </c>
+      <c r="R6">
+        <v>0.435412957797</v>
+      </c>
+      <c r="S6">
+        <v>0.003258629300124444</v>
+      </c>
+      <c r="T6">
+        <v>0.003258629300124444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.18819187629185</v>
-      </c>
-      <c r="H6">
-        <v>1.18819187629185</v>
-      </c>
-      <c r="I6">
-        <v>0.09519136022086648</v>
-      </c>
-      <c r="J6">
-        <v>0.09519136022086648</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.44646243250828</v>
-      </c>
-      <c r="N6">
-        <v>0.44646243250828</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.5304830353758366</v>
-      </c>
-      <c r="R6">
-        <v>0.5304830353758366</v>
-      </c>
-      <c r="S6">
-        <v>0.09519136022086648</v>
-      </c>
-      <c r="T6">
-        <v>0.09519136022086648</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.518570333333333</v>
+      </c>
+      <c r="H7">
+        <v>7.555711000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1982904796327864</v>
+      </c>
+      <c r="J7">
+        <v>0.1982904796327864</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.47087</v>
+      </c>
+      <c r="N7">
+        <v>1.41261</v>
+      </c>
+      <c r="O7">
+        <v>0.4028370064454604</v>
+      </c>
+      <c r="P7">
+        <v>0.4028370064454605</v>
+      </c>
+      <c r="Q7">
+        <v>1.185919212856666</v>
+      </c>
+      <c r="R7">
+        <v>10.67327291571</v>
+      </c>
+      <c r="S7">
+        <v>0.07987874322190623</v>
+      </c>
+      <c r="T7">
+        <v>0.07987874322190625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.780877333333333</v>
+      </c>
+      <c r="H8">
+        <v>8.342632</v>
+      </c>
+      <c r="I8">
+        <v>0.2189422677336166</v>
+      </c>
+      <c r="J8">
+        <v>0.2189422677336166</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.6788056666666668</v>
+      </c>
+      <c r="N8">
+        <v>2.036417</v>
+      </c>
+      <c r="O8">
+        <v>0.5807293790604947</v>
+      </c>
+      <c r="P8">
+        <v>0.5807293790604947</v>
+      </c>
+      <c r="Q8">
+        <v>1.887675292171556</v>
+      </c>
+      <c r="R8">
+        <v>16.989077629544</v>
+      </c>
+      <c r="S8">
+        <v>0.1271462071910398</v>
+      </c>
+      <c r="T8">
+        <v>0.1271462071910398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.780877333333333</v>
+      </c>
+      <c r="H9">
+        <v>8.342632</v>
+      </c>
+      <c r="I9">
+        <v>0.2189422677336166</v>
+      </c>
+      <c r="J9">
+        <v>0.2189422677336166</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.019209</v>
+      </c>
+      <c r="N9">
+        <v>0.057627</v>
+      </c>
+      <c r="O9">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="P9">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="Q9">
+        <v>0.053417872696</v>
+      </c>
+      <c r="R9">
+        <v>0.480760854264</v>
+      </c>
+      <c r="S9">
+        <v>0.003598012824386188</v>
+      </c>
+      <c r="T9">
+        <v>0.003598012824386188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.780877333333333</v>
+      </c>
+      <c r="H10">
+        <v>8.342632</v>
+      </c>
+      <c r="I10">
+        <v>0.2189422677336166</v>
+      </c>
+      <c r="J10">
+        <v>0.2189422677336166</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.47087</v>
+      </c>
+      <c r="N10">
+        <v>1.41261</v>
+      </c>
+      <c r="O10">
+        <v>0.4028370064454604</v>
+      </c>
+      <c r="P10">
+        <v>0.4028370064454605</v>
+      </c>
+      <c r="Q10">
+        <v>1.309431709946667</v>
+      </c>
+      <c r="R10">
+        <v>11.78488538952</v>
+      </c>
+      <c r="S10">
+        <v>0.08819804771819065</v>
+      </c>
+      <c r="T10">
+        <v>0.08819804771819065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.622274</v>
+      </c>
+      <c r="H11">
+        <v>10.866822</v>
+      </c>
+      <c r="I11">
+        <v>0.2851865756199669</v>
+      </c>
+      <c r="J11">
+        <v>0.2851865756199668</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.6788056666666668</v>
+      </c>
+      <c r="N11">
+        <v>2.036417</v>
+      </c>
+      <c r="O11">
+        <v>0.5807293790604947</v>
+      </c>
+      <c r="P11">
+        <v>0.5807293790604947</v>
+      </c>
+      <c r="Q11">
+        <v>2.458820117419333</v>
+      </c>
+      <c r="R11">
+        <v>22.129381056774</v>
+      </c>
+      <c r="S11">
+        <v>0.1656162229761722</v>
+      </c>
+      <c r="T11">
+        <v>0.1656162229761722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.622274</v>
+      </c>
+      <c r="H12">
+        <v>10.866822</v>
+      </c>
+      <c r="I12">
+        <v>0.2851865756199669</v>
+      </c>
+      <c r="J12">
+        <v>0.2851865756199668</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.019209</v>
+      </c>
+      <c r="N12">
+        <v>0.057627</v>
+      </c>
+      <c r="O12">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="P12">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="Q12">
+        <v>0.06958026126599999</v>
+      </c>
+      <c r="R12">
+        <v>0.626222351394</v>
+      </c>
+      <c r="S12">
+        <v>0.004686646242615276</v>
+      </c>
+      <c r="T12">
+        <v>0.004686646242615275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.622274</v>
+      </c>
+      <c r="H13">
+        <v>10.866822</v>
+      </c>
+      <c r="I13">
+        <v>0.2851865756199669</v>
+      </c>
+      <c r="J13">
+        <v>0.2851865756199668</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.47087</v>
+      </c>
+      <c r="N13">
+        <v>1.41261</v>
+      </c>
+      <c r="O13">
+        <v>0.4028370064454604</v>
+      </c>
+      <c r="P13">
+        <v>0.4028370064454605</v>
+      </c>
+      <c r="Q13">
+        <v>1.70562015838</v>
+      </c>
+      <c r="R13">
+        <v>15.35058142542</v>
+      </c>
+      <c r="S13">
+        <v>0.1148837064011794</v>
+      </c>
+      <c r="T13">
+        <v>0.1148837064011794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.237736333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.713209</v>
+      </c>
+      <c r="I14">
+        <v>0.09744867075868562</v>
+      </c>
+      <c r="J14">
+        <v>0.0974486707586856</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.6788056666666668</v>
+      </c>
+      <c r="N14">
+        <v>2.036417</v>
+      </c>
+      <c r="O14">
+        <v>0.5807293790604947</v>
+      </c>
+      <c r="P14">
+        <v>0.5807293790604947</v>
+      </c>
+      <c r="Q14">
+        <v>0.840182436905889</v>
+      </c>
+      <c r="R14">
+        <v>7.561641932153001</v>
+      </c>
+      <c r="S14">
+        <v>0.05659130605996208</v>
+      </c>
+      <c r="T14">
+        <v>0.05659130605996208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.237736333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.713209</v>
+      </c>
+      <c r="I15">
+        <v>0.09744867075868562</v>
+      </c>
+      <c r="J15">
+        <v>0.0974486707586856</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.019209</v>
+      </c>
+      <c r="N15">
+        <v>0.057627</v>
+      </c>
+      <c r="O15">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="P15">
+        <v>0.01643361449404475</v>
+      </c>
+      <c r="Q15">
+        <v>0.023775677227</v>
+      </c>
+      <c r="R15">
+        <v>0.213981095043</v>
+      </c>
+      <c r="S15">
+        <v>0.001601433888205331</v>
+      </c>
+      <c r="T15">
+        <v>0.00160143388820533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.237736333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.713209</v>
+      </c>
+      <c r="I16">
+        <v>0.09744867075868562</v>
+      </c>
+      <c r="J16">
+        <v>0.0974486707586856</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.47087</v>
+      </c>
+      <c r="N16">
+        <v>1.41261</v>
+      </c>
+      <c r="O16">
+        <v>0.4028370064454604</v>
+      </c>
+      <c r="P16">
+        <v>0.4028370064454605</v>
+      </c>
+      <c r="Q16">
+        <v>0.5828129072766666</v>
+      </c>
+      <c r="R16">
+        <v>5.245316165489999</v>
+      </c>
+      <c r="S16">
+        <v>0.03925593081051819</v>
+      </c>
+      <c r="T16">
+        <v>0.03925593081051819</v>
       </c>
     </row>
   </sheetData>
